--- a/data/trans_orig/Q5418_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>20904</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15067</v>
+        <v>14788</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29121</v>
+        <v>28539</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1280017872711207</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09225601962120319</v>
+        <v>0.0905496727304998</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1783140049311006</v>
+        <v>0.1747506808069507</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -762,19 +762,19 @@
         <v>27378</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21418</v>
+        <v>21784</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34619</v>
+        <v>34167</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1433171982355691</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.112117060935661</v>
+        <v>0.1140344930056171</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.181221551894933</v>
+        <v>0.178856341255709</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>103</v>
@@ -783,19 +783,19 @@
         <v>48282</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40454</v>
+        <v>40019</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58849</v>
+        <v>58580</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1362584368107967</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1141650821428021</v>
+        <v>0.112938288292732</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1660797421602124</v>
+        <v>0.1653195944274276</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>19732</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13494</v>
+        <v>14022</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27613</v>
+        <v>27688</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.120825191525457</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0826259161783144</v>
+        <v>0.08585753663834549</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1690814180554281</v>
+        <v>0.169538976551361</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>66</v>
@@ -833,19 +833,19 @@
         <v>28393</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22231</v>
+        <v>22337</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35193</v>
+        <v>35916</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1486323974880445</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1163747986355722</v>
+        <v>0.1169286826984768</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1842294525552396</v>
+        <v>0.188011285397588</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>98</v>
@@ -854,19 +854,19 @@
         <v>48126</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>39419</v>
+        <v>39163</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>58291</v>
+        <v>58414</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.135816258682821</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.111245088274456</v>
+        <v>0.1105227165716423</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.164503887503313</v>
+        <v>0.1648525462266789</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>122677</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>113255</v>
+        <v>112833</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>131129</v>
+        <v>130884</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7511730212034222</v>
+        <v>0.7511730212034223</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6934812379797931</v>
+        <v>0.6908971488369797</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8029251448157324</v>
+        <v>0.8014279030411365</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>313</v>
@@ -904,19 +904,19 @@
         <v>135258</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>126331</v>
+        <v>126995</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>144001</v>
+        <v>143356</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7080504042763864</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6613199000205846</v>
+        <v>0.6647937935658288</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.75381649865998</v>
+        <v>0.75043992542148</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>498</v>
@@ -925,19 +925,19 @@
         <v>257935</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>245576</v>
+        <v>246081</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>269740</v>
+        <v>270858</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7279253045063823</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6930446281758862</v>
+        <v>0.6944715094589494</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7612409106866239</v>
+        <v>0.7643940521295018</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>14398</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9653</v>
+        <v>9606</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20229</v>
+        <v>20054</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.08079396243219458</v>
+        <v>0.0807939624321946</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05416979863542547</v>
+        <v>0.05390533998421972</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1135178999935829</v>
+        <v>0.1125362255364622</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>53</v>
@@ -1050,19 +1050,19 @@
         <v>28191</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>21896</v>
+        <v>21672</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36839</v>
+        <v>35962</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1164713945030183</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09046528316254811</v>
+        <v>0.08953719191663048</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1522013819047239</v>
+        <v>0.1485776649212404</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>80</v>
@@ -1071,19 +1071,19 @@
         <v>42588</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>33699</v>
+        <v>33527</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>53033</v>
+        <v>52858</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1013424223164267</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0801904940175088</v>
+        <v>0.07978099719721694</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1261971191207056</v>
+        <v>0.1257787987372271</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>15009</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9461</v>
+        <v>9178</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22294</v>
+        <v>23031</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08422466491066236</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05309358693225432</v>
+        <v>0.05150002048909055</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1251041101732446</v>
+        <v>0.1292399188986747</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>50</v>
@@ -1121,19 +1121,19 @@
         <v>26320</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>19873</v>
+        <v>20282</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>33574</v>
+        <v>33790</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1087443876465803</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08210804143595925</v>
+        <v>0.08379643401876473</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1387137686495099</v>
+        <v>0.139603969175444</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>70</v>
@@ -1142,19 +1142,19 @@
         <v>41330</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>32515</v>
+        <v>32642</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>51415</v>
+        <v>51374</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09834682869227426</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07737294733638496</v>
+        <v>0.07767502823046363</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1223456878039341</v>
+        <v>0.1222490519584998</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>148797</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>140872</v>
+        <v>139941</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>156402</v>
+        <v>156229</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.834981372657143</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7905103503169379</v>
+        <v>0.7852849093138997</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8776551110253514</v>
+        <v>0.8766842145723098</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>346</v>
@@ -1192,19 +1192,19 @@
         <v>187529</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>177111</v>
+        <v>177546</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>195990</v>
+        <v>197217</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7747842178504014</v>
+        <v>0.7747842178504013</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.731741869563703</v>
+        <v>0.7335385617602836</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8097409316517727</v>
+        <v>0.8148109955753075</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>553</v>
@@ -1213,19 +1213,19 @@
         <v>336325</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>322537</v>
+        <v>322992</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>348240</v>
+        <v>348346</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8003107489912991</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7675012900418231</v>
+        <v>0.7685831935991254</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8286627504194687</v>
+        <v>0.8289155033759394</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>6646</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3240</v>
+        <v>3189</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12315</v>
+        <v>12472</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04202178116198601</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02048375014984702</v>
+        <v>0.0201661720500809</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07786731850171638</v>
+        <v>0.07885948585303931</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -1338,19 +1338,19 @@
         <v>15870</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10861</v>
+        <v>10593</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>23340</v>
+        <v>23424</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.09073505586582688</v>
+        <v>0.09073505586582689</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06209603215680928</v>
+        <v>0.0605614002418196</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1334428756162348</v>
+        <v>0.133921713488909</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>32</v>
@@ -1359,19 +1359,19 @@
         <v>22516</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15592</v>
+        <v>14962</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>32270</v>
+        <v>31384</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06760346404947061</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04681280954900949</v>
+        <v>0.04492228610314317</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09688763176641385</v>
+        <v>0.09422747895913076</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>6442</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2932</v>
+        <v>2940</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12356</v>
+        <v>12121</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04073417882073731</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01853575266377907</v>
+        <v>0.01859036823286103</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07812207159553708</v>
+        <v>0.076639660604265</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1409,19 +1409,19 @@
         <v>12811</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8107</v>
+        <v>7847</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19046</v>
+        <v>18812</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07324130446705132</v>
+        <v>0.07324130446705134</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04634998489886723</v>
+        <v>0.04486249323885892</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1088903806648162</v>
+        <v>0.1075527094255407</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -1430,19 +1430,19 @@
         <v>19253</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13065</v>
+        <v>13287</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27009</v>
+        <v>26328</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0578052335778517</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03922650970608717</v>
+        <v>0.03989328448162981</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0810906702581103</v>
+        <v>0.07904688614080277</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>145069</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>137319</v>
+        <v>137777</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>150073</v>
+        <v>150285</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9172440400172768</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8682453734305937</v>
+        <v>0.8711393260206254</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9488842649443673</v>
+        <v>0.9502252675485788</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>244</v>
@@ -1480,19 +1480,19 @@
         <v>146228</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>136859</v>
+        <v>137203</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>153176</v>
+        <v>153152</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8360236396671218</v>
+        <v>0.8360236396671219</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7824598728482428</v>
+        <v>0.784426105969293</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8757460033982475</v>
+        <v>0.8756082746927218</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>418</v>
@@ -1501,19 +1501,19 @@
         <v>291297</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>279275</v>
+        <v>279988</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>300664</v>
+        <v>300953</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8745913023726777</v>
+        <v>0.8745913023726776</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.838498614480506</v>
+        <v>0.8406380904469987</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9027153368888101</v>
+        <v>0.9035837764460044</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>11339</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7150</v>
+        <v>6599</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17944</v>
+        <v>17062</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05319103634862318</v>
+        <v>0.05319103634862319</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03354002574810488</v>
+        <v>0.03095563824905861</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08417215491651585</v>
+        <v>0.08003628712797808</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -1626,19 +1626,19 @@
         <v>22007</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15216</v>
+        <v>16014</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30263</v>
+        <v>30621</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07467162978516435</v>
+        <v>0.07467162978516437</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05162992659254693</v>
+        <v>0.05433791024520127</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1026827960851637</v>
+        <v>0.1038976145160023</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -1647,19 +1647,19 @@
         <v>33347</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25686</v>
+        <v>24860</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44245</v>
+        <v>43735</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06565551617928467</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0505733143861008</v>
+        <v>0.04894612243212956</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08711358550691582</v>
+        <v>0.0861079890207047</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>12713</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8018</v>
+        <v>7715</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19210</v>
+        <v>19143</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.05963274746608655</v>
+        <v>0.05963274746608657</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03761103265968129</v>
+        <v>0.03618887253486572</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09010831165082596</v>
+        <v>0.08979745935036668</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>54</v>
@@ -1697,19 +1697,19 @@
         <v>32080</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24326</v>
+        <v>24344</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41540</v>
+        <v>41744</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1088485459594955</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08253965524511934</v>
+        <v>0.08259959798547842</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1409481313393957</v>
+        <v>0.1416410973874388</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>74</v>
@@ -1718,19 +1718,19 @@
         <v>44793</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>35748</v>
+        <v>34529</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>56090</v>
+        <v>55639</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08819105194139222</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07038282401240244</v>
+        <v>0.06798262517455612</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.110434494433956</v>
+        <v>0.1095457838345451</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>189132</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>181254</v>
+        <v>181162</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>196299</v>
+        <v>196246</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8871762161852902</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.850224938728718</v>
+        <v>0.849789470613284</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9207981822611913</v>
+        <v>0.9205484383880104</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>435</v>
@@ -1768,19 +1768,19 @@
         <v>240633</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>229638</v>
+        <v>228863</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>250663</v>
+        <v>249790</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.8164798242553402</v>
+        <v>0.8164798242553403</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7791731728405827</v>
+        <v>0.7765438406525407</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8505132700360249</v>
+        <v>0.8475510143155713</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>721</v>
@@ -1789,19 +1789,19 @@
         <v>429765</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>416534</v>
+        <v>417075</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>442710</v>
+        <v>443658</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.8461534318793231</v>
+        <v>0.846153431879323</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.820104565517299</v>
+        <v>0.8211688598852667</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8716409395021659</v>
+        <v>0.8735069229496706</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>53288</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42577</v>
+        <v>44041</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>64814</v>
+        <v>65341</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07475225291311967</v>
+        <v>0.07475225291311968</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05972710265713132</v>
+        <v>0.06178013514389855</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0909210008612459</v>
+        <v>0.09166092835326066</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>177</v>
@@ -1914,19 +1914,19 @@
         <v>93446</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>79898</v>
+        <v>81053</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>108474</v>
+        <v>108304</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1035186521530225</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08851065975273742</v>
+        <v>0.08978965084048256</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1201669258668391</v>
+        <v>0.1199776607524031</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>267</v>
@@ -1935,19 +1935,19 @@
         <v>146734</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>131212</v>
+        <v>128943</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>167813</v>
+        <v>165820</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09082557346856845</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08121774802730923</v>
+        <v>0.07981337653896256</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1038729596627948</v>
+        <v>0.1026395088505327</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>53897</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>42476</v>
+        <v>43594</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>67336</v>
+        <v>66164</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07560648836324214</v>
+        <v>0.07560648836324216</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0595853696009632</v>
+        <v>0.06115350987375477</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09445917082842889</v>
+        <v>0.09281543683043403</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>191</v>
@@ -1985,19 +1985,19 @@
         <v>99604</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>85800</v>
+        <v>86354</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>114040</v>
+        <v>115123</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1103403322117259</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09504791581232357</v>
+        <v>0.09566199743244451</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1263321656825289</v>
+        <v>0.1275320928570046</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>271</v>
@@ -2006,19 +2006,19 @@
         <v>153501</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>136337</v>
+        <v>135901</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>171817</v>
+        <v>172926</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09501413829688979</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08439016884142632</v>
+        <v>0.08412052039234805</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1063514235017334</v>
+        <v>0.1070377732312025</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>605674</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>589788</v>
+        <v>588917</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>621058</v>
+        <v>621026</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8496412587236383</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8273550622005665</v>
+        <v>0.826133790324836</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8712210811608386</v>
+        <v>0.8711764682920335</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1338</v>
@@ -2056,19 +2056,19 @@
         <v>709648</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>690367</v>
+        <v>690039</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>726981</v>
+        <v>728618</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7861410156352515</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7647815717801142</v>
+        <v>0.7644188738930342</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8053428788668252</v>
+        <v>0.8071561528651804</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2190</v>
@@ -2077,19 +2077,19 @@
         <v>1315322</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1291392</v>
+        <v>1290369</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1338899</v>
+        <v>1339744</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8141602882345418</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7993478831193297</v>
+        <v>0.7987146636508816</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8287539827247187</v>
+        <v>0.8292769542810839</v>
       </c>
     </row>
     <row r="23">
